--- a/nriss-patch-1/ig/StructureDefinition-tddui-practitioner.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.1.0}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -903,7 +903,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1053,7 +1053,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>
@@ -1115,7 +1115,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1225,7 +1225,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1255,7 +1255,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1291,7 +1291,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1606,13 +1606,13 @@
     <t>degreeType</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS|20230526120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.coding:degree</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS|20250828120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.text</t>
@@ -1690,7 +1690,7 @@
     <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS|20240329120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
@@ -1702,7 +1702,7 @@
     <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS|20250328120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.text</t>
@@ -1757,7 +1757,7 @@
 typeSavoirFaire</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS|20251016120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
@@ -1766,7 +1766,7 @@
     <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS|20241025120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.text</t>
@@ -2123,7 +2123,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2138,7 +2138,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
